--- a/sample/pingcode-iBizPLM对照表.xlsx
+++ b/sample/pingcode-iBizPLM对照表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="384">
   <si>
     <t>序号</t>
   </si>
@@ -983,7 +983,7 @@
     <t>锁定页面</t>
   </si>
   <si>
-    <t>宽屏模式</t>
+    <t>演示</t>
   </si>
   <si>
     <t>历史版本</t>
@@ -1876,7 +1876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1910,11 +1910,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1926,6 +1935,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2241,8 +2253,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="E430" sqref="E430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3564,18 +3576,18 @@
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="4"/>
+      <c r="E105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
         <v>33</v>
       </c>
@@ -3586,13 +3598,13 @@
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="4"/>
+      <c r="E107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="9"/>
@@ -3679,9 +3691,9 @@
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
       <c r="D115" s="4" t="s">
         <v>122</v>
       </c>
@@ -3748,18 +3760,18 @@
       <c r="A120" s="9"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="4"/>
+      <c r="E120" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="9"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="4" t="s">
         <v>22</v>
       </c>
@@ -3767,9 +3779,9 @@
       <c r="F121" s="4"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="9"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="4" t="s">
         <v>127</v>
       </c>
@@ -3777,9 +3789,9 @@
       <c r="F122" s="4"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="9"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="4" t="s">
         <v>128</v>
       </c>
@@ -3787,9 +3799,9 @@
       <c r="F123" s="4"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="9"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="12"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="4" t="s">
         <v>129</v>
       </c>
@@ -3799,33 +3811,33 @@
     <row r="125" spans="1:6">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="4"/>
+      <c r="E125" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="12"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="4"/>
+      <c r="E126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="9"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="4" t="s">
         <v>133</v>
       </c>
@@ -3836,18 +3848,18 @@
       <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="4"/>
+      <c r="E128" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="15"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="9"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
       <c r="D129" s="4" t="s">
         <v>135</v>
       </c>
@@ -3855,9 +3867,9 @@
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="9"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="12"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="4" t="s">
         <v>136</v>
       </c>
@@ -3867,16 +3879,16 @@
     <row r="131" spans="1:6">
       <c r="A131" s="9"/>
       <c r="B131" s="10"/>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="4"/>
+      <c r="E131" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="12"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="9"/>
@@ -4261,20 +4273,20 @@
     <row r="163" spans="1:6">
       <c r="A163" s="9"/>
       <c r="B163" s="10"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="4" t="s">
+      <c r="C163" s="8"/>
+      <c r="D163" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" s="4" t="s">
+      <c r="E163" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="9"/>
-      <c r="B164" s="10"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="4" t="s">
         <v>65</v>
@@ -4287,14 +4299,14 @@
     <row r="165" spans="1:6">
       <c r="A165" s="9"/>
       <c r="B165" s="10"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="4" t="s">
+      <c r="C165" s="14"/>
+      <c r="D165" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E165" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="4" t="s">
+      <c r="E165" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4635,7 +4647,7 @@
     <row r="193" s="1" customFormat="1" spans="1:6">
       <c r="A193" s="9"/>
       <c r="B193" s="10"/>
-      <c r="C193" s="12"/>
+      <c r="C193" s="14"/>
       <c r="D193" s="4" t="s">
         <v>67</v>
       </c>
@@ -4712,20 +4724,20 @@
       <c r="A199" s="9"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
-      <c r="D199" s="4" t="s">
+      <c r="D199" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" s="4" t="s">
+      <c r="E199" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="9"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
       <c r="D200" s="4" t="s">
         <v>167</v>
       </c>
@@ -4737,14 +4749,14 @@
     <row r="201" spans="1:6">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="4" t="s">
+      <c r="C201" s="14"/>
+      <c r="D201" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F201" s="4" t="s">
+      <c r="E201" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" s="12" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4815,7 +4827,7 @@
     <row r="207" spans="1:6">
       <c r="A207" s="9"/>
       <c r="B207" s="10"/>
-      <c r="C207" s="12"/>
+      <c r="C207" s="14"/>
       <c r="D207" s="4" t="s">
         <v>174</v>
       </c>
@@ -4893,7 +4905,7 @@
     <row r="213" spans="1:6">
       <c r="A213" s="9"/>
       <c r="B213" s="10"/>
-      <c r="C213" s="12"/>
+      <c r="C213" s="14"/>
       <c r="D213" s="4" t="s">
         <v>104</v>
       </c>
@@ -4949,7 +4961,7 @@
     <row r="217" s="1" customFormat="1" spans="1:6">
       <c r="A217" s="9"/>
       <c r="B217" s="10"/>
-      <c r="C217" s="12"/>
+      <c r="C217" s="14"/>
       <c r="D217" s="4" t="s">
         <v>30</v>
       </c>
@@ -4988,18 +5000,18 @@
       <c r="A220" s="9"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
-      <c r="D220" s="4" t="s">
+      <c r="D220" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E220" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F220" s="4"/>
+      <c r="E220" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="11"/>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="9"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
       <c r="D221" s="4" t="s">
         <v>188</v>
       </c>
@@ -5007,9 +5019,9 @@
       <c r="F221" s="4"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="9"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="12"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
       <c r="D222" s="4" t="s">
         <v>189</v>
       </c>
@@ -5019,16 +5031,16 @@
     <row r="223" spans="1:6">
       <c r="A223" s="9"/>
       <c r="B223" s="10"/>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D223" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E223" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" s="4"/>
+      <c r="E223" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="12"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="9"/>
@@ -5055,9 +5067,9 @@
       <c r="F225" s="4"/>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="11"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="12"/>
+      <c r="A226" s="13"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
       <c r="D226" s="4" t="s">
         <v>194</v>
       </c>
@@ -5510,20 +5522,20 @@
       <c r="A261" s="9"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
-      <c r="D261" s="4" t="s">
+      <c r="D261" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E261" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F261" s="4" t="s">
+      <c r="E261" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="9"/>
-      <c r="B262" s="10"/>
-      <c r="C262" s="10"/>
+      <c r="A262" s="3"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
       <c r="D262" s="4" t="s">
         <v>65</v>
       </c>
@@ -5535,14 +5547,14 @@
     <row r="263" spans="1:6">
       <c r="A263" s="9"/>
       <c r="B263" s="10"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="4" t="s">
+      <c r="C263" s="14"/>
+      <c r="D263" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E263" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F263" s="4" t="s">
+      <c r="E263" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5635,8 +5647,8 @@
       <c r="F269" s="4"/>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="11"/>
-      <c r="B270" s="12"/>
+      <c r="A270" s="13"/>
+      <c r="B270" s="14"/>
       <c r="C270" s="4" t="s">
         <v>184</v>
       </c>
@@ -6032,20 +6044,20 @@
       <c r="A301" s="9"/>
       <c r="B301" s="10"/>
       <c r="C301" s="10"/>
-      <c r="D301" s="4" t="s">
+      <c r="D301" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E301" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F301" s="4" t="s">
+      <c r="E301" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="9"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="10"/>
+      <c r="A302" s="3"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
       <c r="D302" s="4" t="s">
         <v>65</v>
       </c>
@@ -6057,14 +6069,14 @@
     <row r="303" spans="1:6">
       <c r="A303" s="9"/>
       <c r="B303" s="10"/>
-      <c r="C303" s="12"/>
-      <c r="D303" s="4" t="s">
+      <c r="C303" s="14"/>
+      <c r="D303" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E303" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F303" s="4" t="s">
+      <c r="E303" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6165,9 +6177,9 @@
       <c r="F310" s="4"/>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="11"/>
-      <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
+      <c r="A311" s="13"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
       <c r="D311" s="4" t="s">
         <v>194</v>
       </c>
@@ -6186,7 +6198,7 @@
       <c r="C312" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D312" s="13" t="s">
+      <c r="D312" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E312" s="3" t="s">
@@ -6198,7 +6210,7 @@
       <c r="A313" s="9"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
-      <c r="D313" s="13" t="s">
+      <c r="D313" s="16" t="s">
         <v>227</v>
       </c>
       <c r="E313" s="3" t="s">
@@ -6210,7 +6222,7 @@
       <c r="A314" s="9"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
-      <c r="D314" s="13" t="s">
+      <c r="D314" s="16" t="s">
         <v>228</v>
       </c>
       <c r="E314" s="3" t="s">
@@ -6222,7 +6234,7 @@
       <c r="A315" s="9"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
-      <c r="D315" s="13" t="s">
+      <c r="D315" s="16" t="s">
         <v>229</v>
       </c>
       <c r="E315" s="3" t="s">
@@ -6234,7 +6246,7 @@
       <c r="A316" s="9"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
-      <c r="D316" s="13" t="s">
+      <c r="D316" s="16" t="s">
         <v>230</v>
       </c>
       <c r="E316" s="3" t="s">
@@ -6243,10 +6255,10 @@
       <c r="F316" s="4"/>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="11"/>
+      <c r="A317" s="13"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
-      <c r="D317" s="13" t="s">
+      <c r="D317" s="16" t="s">
         <v>231</v>
       </c>
       <c r="E317" s="3" t="s">
@@ -6300,18 +6312,18 @@
       <c r="A321" s="9"/>
       <c r="B321" s="10"/>
       <c r="C321" s="10"/>
-      <c r="D321" s="4" t="s">
+      <c r="D321" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E321" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F321" s="4"/>
+      <c r="E321" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321" s="11"/>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" s="9"/>
-      <c r="B322" s="10"/>
-      <c r="C322" s="10"/>
+      <c r="A322" s="3"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
       <c r="D322" s="4" t="s">
         <v>33</v>
       </c>
@@ -6322,30 +6334,30 @@
       <c r="A323" s="9"/>
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
-      <c r="D323" s="4" t="s">
+      <c r="D323" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E323" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F323" s="4"/>
+      <c r="E323" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F323" s="12"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="9"/>
       <c r="B324" s="10"/>
       <c r="C324" s="10"/>
-      <c r="D324" s="4" t="s">
+      <c r="D324" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E324" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F324" s="4"/>
+      <c r="E324" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F324" s="11"/>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="9"/>
-      <c r="B325" s="10"/>
-      <c r="C325" s="10"/>
+      <c r="A325" s="3"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
       <c r="D325" s="4" t="s">
         <v>238</v>
       </c>
@@ -6356,13 +6368,13 @@
       <c r="A326" s="9"/>
       <c r="B326" s="10"/>
       <c r="C326" s="10"/>
-      <c r="D326" s="4" t="s">
+      <c r="D326" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E326" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F326" s="4"/>
+      <c r="E326" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" s="12"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="9"/>
@@ -6439,7 +6451,7 @@
     <row r="333" spans="1:6">
       <c r="A333" s="9"/>
       <c r="B333" s="10"/>
-      <c r="C333" s="12"/>
+      <c r="C333" s="14"/>
       <c r="D333" s="4" t="s">
         <v>245</v>
       </c>
@@ -6477,7 +6489,7 @@
     <row r="336" spans="1:6">
       <c r="A336" s="9"/>
       <c r="B336" s="10"/>
-      <c r="C336" s="12"/>
+      <c r="C336" s="14"/>
       <c r="D336" s="4" t="s">
         <v>72</v>
       </c>
@@ -6492,18 +6504,18 @@
       <c r="C337" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D337" s="4" t="s">
+      <c r="D337" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E337" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F337" s="4"/>
+      <c r="E337" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F337" s="11"/>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" s="9"/>
-      <c r="B338" s="10"/>
-      <c r="C338" s="10"/>
+      <c r="A338" s="3"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
       <c r="D338" s="4" t="s">
         <v>249</v>
       </c>
@@ -6511,9 +6523,9 @@
       <c r="F338" s="4"/>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="9"/>
-      <c r="B339" s="10"/>
-      <c r="C339" s="10"/>
+      <c r="A339" s="3"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
       <c r="D339" s="4" t="s">
         <v>250</v>
       </c>
@@ -6521,9 +6533,9 @@
       <c r="F339" s="4"/>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="9"/>
-      <c r="B340" s="10"/>
-      <c r="C340" s="10"/>
+      <c r="A340" s="3"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
       <c r="D340" s="4" t="s">
         <v>251</v>
       </c>
@@ -6531,9 +6543,9 @@
       <c r="F340" s="4"/>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="9"/>
-      <c r="B341" s="10"/>
-      <c r="C341" s="10"/>
+      <c r="A341" s="3"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
       <c r="D341" s="4" t="s">
         <v>252</v>
       </c>
@@ -6544,13 +6556,13 @@
       <c r="A342" s="9"/>
       <c r="B342" s="10"/>
       <c r="C342" s="10"/>
-      <c r="D342" s="4" t="s">
+      <c r="D342" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E342" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F342" s="4"/>
+      <c r="E342" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F342" s="12"/>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="9"/>
@@ -6651,7 +6663,7 @@
     <row r="351" spans="1:6">
       <c r="A351" s="9"/>
       <c r="B351" s="10"/>
-      <c r="C351" s="12"/>
+      <c r="C351" s="14"/>
       <c r="D351" s="4" t="s">
         <v>259</v>
       </c>
@@ -6680,18 +6692,18 @@
       <c r="C353" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D353" s="4" t="s">
+      <c r="D353" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E353" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F353" s="4"/>
+      <c r="E353" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353" s="11"/>
     </row>
     <row r="354" spans="1:6">
-      <c r="A354" s="9"/>
-      <c r="B354" s="10"/>
-      <c r="C354" s="10"/>
+      <c r="A354" s="3"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
       <c r="D354" s="4" t="s">
         <v>264</v>
       </c>
@@ -6699,9 +6711,9 @@
       <c r="F354" s="4"/>
     </row>
     <row r="355" spans="1:6">
-      <c r="A355" s="9"/>
-      <c r="B355" s="10"/>
-      <c r="C355" s="10"/>
+      <c r="A355" s="3"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
       <c r="D355" s="4" t="s">
         <v>265</v>
       </c>
@@ -6709,9 +6721,9 @@
       <c r="F355" s="4"/>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="9"/>
-      <c r="B356" s="10"/>
-      <c r="C356" s="12"/>
+      <c r="A356" s="3"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
       <c r="D356" s="4" t="s">
         <v>266</v>
       </c>
@@ -6724,18 +6736,18 @@
       <c r="C357" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D357" s="4" t="s">
+      <c r="D357" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E357" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F357" s="4"/>
+      <c r="E357" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" s="15"/>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" s="9"/>
-      <c r="B358" s="10"/>
-      <c r="C358" s="10"/>
+      <c r="A358" s="3"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
       <c r="D358" s="4" t="s">
         <v>268</v>
       </c>
@@ -6746,13 +6758,13 @@
       <c r="A359" s="9"/>
       <c r="B359" s="10"/>
       <c r="C359" s="10"/>
-      <c r="D359" s="4" t="s">
+      <c r="D359" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E359" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F359" s="4"/>
+      <c r="E359" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" s="12"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="9"/>
@@ -6979,7 +6991,7 @@
     <row r="378" spans="1:6">
       <c r="A378" s="9"/>
       <c r="B378" s="10"/>
-      <c r="C378" s="12"/>
+      <c r="C378" s="14"/>
       <c r="D378" s="4" t="s">
         <v>279</v>
       </c>
@@ -7055,7 +7067,7 @@
     <row r="384" spans="1:6">
       <c r="A384" s="9"/>
       <c r="B384" s="10"/>
-      <c r="C384" s="12"/>
+      <c r="C384" s="14"/>
       <c r="D384" s="4" t="s">
         <v>105</v>
       </c>
@@ -7177,7 +7189,7 @@
     <row r="394" spans="1:6">
       <c r="A394" s="9"/>
       <c r="B394" s="10"/>
-      <c r="C394" s="12"/>
+      <c r="C394" s="14"/>
       <c r="D394" s="4" t="s">
         <v>281</v>
       </c>
@@ -7201,9 +7213,9 @@
       <c r="F395" s="4"/>
     </row>
     <row r="396" spans="1:6">
-      <c r="A396" s="11"/>
-      <c r="B396" s="12"/>
-      <c r="C396" s="12"/>
+      <c r="A396" s="13"/>
+      <c r="B396" s="14"/>
+      <c r="C396" s="14"/>
       <c r="D396" s="4" t="s">
         <v>290</v>
       </c>
@@ -7270,18 +7282,18 @@
       <c r="A401" s="9"/>
       <c r="B401" s="10"/>
       <c r="C401" s="10"/>
-      <c r="D401" s="4" t="s">
+      <c r="D401" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E401" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F401" s="4"/>
+      <c r="E401" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F401" s="11"/>
     </row>
     <row r="402" spans="1:6">
-      <c r="A402" s="9"/>
-      <c r="B402" s="10"/>
-      <c r="C402" s="10"/>
+      <c r="A402" s="3"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
       <c r="D402" s="4" t="s">
         <v>33</v>
       </c>
@@ -7292,30 +7304,30 @@
       <c r="A403" s="9"/>
       <c r="B403" s="10"/>
       <c r="C403" s="10"/>
-      <c r="D403" s="4" t="s">
+      <c r="D403" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E403" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F403" s="4"/>
+      <c r="E403" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F403" s="12"/>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="9"/>
       <c r="B404" s="10"/>
       <c r="C404" s="10"/>
-      <c r="D404" s="4" t="s">
+      <c r="D404" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E404" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F404" s="4"/>
+      <c r="E404" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F404" s="11"/>
     </row>
     <row r="405" spans="1:6">
-      <c r="A405" s="9"/>
-      <c r="B405" s="10"/>
-      <c r="C405" s="10"/>
+      <c r="A405" s="3"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
       <c r="D405" s="4" t="s">
         <v>298</v>
       </c>
@@ -7326,13 +7338,13 @@
       <c r="A406" s="9"/>
       <c r="B406" s="10"/>
       <c r="C406" s="10"/>
-      <c r="D406" s="4" t="s">
+      <c r="D406" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E406" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F406" s="4"/>
+      <c r="E406" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F406" s="12"/>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="9"/>
@@ -7458,18 +7470,18 @@
       <c r="A417" s="9"/>
       <c r="B417" s="10"/>
       <c r="C417" s="10"/>
-      <c r="D417" s="4" t="s">
+      <c r="D417" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E417" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F417" s="4"/>
+      <c r="E417" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F417" s="11"/>
     </row>
     <row r="418" spans="1:6">
-      <c r="A418" s="9"/>
-      <c r="B418" s="10"/>
-      <c r="C418" s="12"/>
+      <c r="A418" s="3"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
       <c r="D418" s="4" t="s">
         <v>308</v>
       </c>
@@ -7479,21 +7491,21 @@
     <row r="419" spans="1:6">
       <c r="A419" s="9"/>
       <c r="B419" s="10"/>
-      <c r="C419" s="8" t="s">
+      <c r="C419" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D419" s="4" t="s">
+      <c r="D419" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E419" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F419" s="4"/>
+      <c r="E419" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F419" s="15"/>
     </row>
     <row r="420" spans="1:6">
-      <c r="A420" s="9"/>
-      <c r="B420" s="10"/>
-      <c r="C420" s="10"/>
+      <c r="A420" s="3"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
       <c r="D420" s="4" t="s">
         <v>311</v>
       </c>
@@ -7504,13 +7516,13 @@
       <c r="A421" s="9"/>
       <c r="B421" s="10"/>
       <c r="C421" s="10"/>
-      <c r="D421" s="4" t="s">
+      <c r="D421" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E421" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F421" s="4"/>
+      <c r="E421" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F421" s="12"/>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="9"/>
@@ -7600,35 +7612,37 @@
       <c r="A429" s="9"/>
       <c r="B429" s="10"/>
       <c r="C429" s="10"/>
-      <c r="D429" s="4" t="s">
+      <c r="D429" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E429" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F429" s="4"/>
+      <c r="E429" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F429" s="11"/>
     </row>
     <row r="430" spans="1:6">
-      <c r="A430" s="9"/>
-      <c r="B430" s="10"/>
-      <c r="C430" s="10"/>
+      <c r="A430" s="3"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
       <c r="D430" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E430" s="3"/>
+      <c r="E430" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F430" s="4"/>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="9"/>
       <c r="B431" s="10"/>
       <c r="C431" s="10"/>
-      <c r="D431" s="4" t="s">
+      <c r="D431" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E431" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F431" s="4"/>
+      <c r="E431" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F431" s="12"/>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="9"/>
@@ -7670,18 +7684,18 @@
       <c r="A435" s="9"/>
       <c r="B435" s="10"/>
       <c r="C435" s="10"/>
-      <c r="D435" s="4" t="s">
+      <c r="D435" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E435" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F435" s="4"/>
+      <c r="E435" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F435" s="11"/>
     </row>
     <row r="436" spans="1:6">
-      <c r="A436" s="9"/>
-      <c r="B436" s="10"/>
-      <c r="C436" s="10"/>
+      <c r="A436" s="3"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="5"/>
       <c r="D436" s="4" t="s">
         <v>323</v>
       </c>
@@ -7689,9 +7703,9 @@
       <c r="F436" s="4"/>
     </row>
     <row r="437" spans="1:6">
-      <c r="A437" s="9"/>
-      <c r="B437" s="10"/>
-      <c r="C437" s="10"/>
+      <c r="A437" s="3"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="5"/>
       <c r="D437" s="4" t="s">
         <v>324</v>
       </c>
@@ -7702,13 +7716,13 @@
       <c r="A438" s="9"/>
       <c r="B438" s="10"/>
       <c r="C438" s="10"/>
-      <c r="D438" s="4" t="s">
+      <c r="D438" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E438" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F438" s="4"/>
+      <c r="E438" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F438" s="12"/>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="9"/>
@@ -7723,9 +7737,9 @@
       <c r="F439" s="4"/>
     </row>
     <row r="440" spans="1:6">
-      <c r="A440" s="11"/>
-      <c r="B440" s="12"/>
-      <c r="C440" s="12"/>
+      <c r="A440" s="13"/>
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
       <c r="D440" s="4" t="s">
         <v>53</v>
       </c>
@@ -7738,7 +7752,7 @@
       <c r="A441" s="7">
         <v>6</v>
       </c>
-      <c r="B441" s="14" t="s">
+      <c r="B441" s="17" t="s">
         <v>325</v>
       </c>
       <c r="C441" s="8" t="s">
@@ -7754,7 +7768,7 @@
     </row>
     <row r="442" s="1" customFormat="1" spans="1:6">
       <c r="A442" s="9"/>
-      <c r="B442" s="15"/>
+      <c r="B442" s="18"/>
       <c r="C442" s="10"/>
       <c r="D442" s="4" t="s">
         <v>29</v>
@@ -7766,7 +7780,7 @@
     </row>
     <row r="443" s="1" customFormat="1" spans="1:6">
       <c r="A443" s="9"/>
-      <c r="B443" s="15"/>
+      <c r="B443" s="18"/>
       <c r="C443" s="10"/>
       <c r="D443" s="4" t="s">
         <v>30</v>
@@ -7778,7 +7792,7 @@
     </row>
     <row r="444" s="1" customFormat="1" spans="1:6">
       <c r="A444" s="9"/>
-      <c r="B444" s="15"/>
+      <c r="B444" s="18"/>
       <c r="C444" s="10"/>
       <c r="D444" s="4" t="s">
         <v>327</v>
@@ -7790,7 +7804,7 @@
     </row>
     <row r="445" s="1" customFormat="1" spans="1:6">
       <c r="A445" s="9"/>
-      <c r="B445" s="15"/>
+      <c r="B445" s="18"/>
       <c r="C445" s="10"/>
       <c r="D445" s="4" t="s">
         <v>328</v>
@@ -7802,7 +7816,7 @@
     </row>
     <row r="446" s="1" customFormat="1" spans="1:6">
       <c r="A446" s="9"/>
-      <c r="B446" s="15"/>
+      <c r="B446" s="18"/>
       <c r="C446" s="10"/>
       <c r="D446" s="4" t="s">
         <v>118</v>
@@ -7814,7 +7828,7 @@
     </row>
     <row r="447" s="1" customFormat="1" spans="1:6">
       <c r="A447" s="9"/>
-      <c r="B447" s="15"/>
+      <c r="B447" s="18"/>
       <c r="C447" s="10"/>
       <c r="D447" s="4" t="s">
         <v>329</v>
@@ -7826,8 +7840,8 @@
     </row>
     <row r="448" s="1" customFormat="1" spans="1:6">
       <c r="A448" s="9"/>
-      <c r="B448" s="15"/>
-      <c r="C448" s="12"/>
+      <c r="B448" s="18"/>
+      <c r="C448" s="14"/>
       <c r="D448" s="4" t="s">
         <v>330</v>
       </c>
@@ -7838,7 +7852,7 @@
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="9"/>
-      <c r="B449" s="15"/>
+      <c r="B449" s="18"/>
       <c r="C449" s="8" t="s">
         <v>16</v>
       </c>
@@ -7852,8 +7866,8 @@
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="9"/>
-      <c r="B450" s="15"/>
-      <c r="C450" s="12"/>
+      <c r="B450" s="18"/>
+      <c r="C450" s="14"/>
       <c r="D450" s="4" t="s">
         <v>331</v>
       </c>
@@ -7864,7 +7878,7 @@
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="9"/>
-      <c r="B451" s="15"/>
+      <c r="B451" s="18"/>
       <c r="C451" s="8" t="s">
         <v>190</v>
       </c>
@@ -7878,7 +7892,7 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="9"/>
-      <c r="B452" s="15"/>
+      <c r="B452" s="18"/>
       <c r="C452" s="10"/>
       <c r="D452" s="4" t="s">
         <v>289</v>
@@ -7890,7 +7904,7 @@
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="9"/>
-      <c r="B453" s="15"/>
+      <c r="B453" s="18"/>
       <c r="C453" s="10"/>
       <c r="D453" s="4" t="s">
         <v>247</v>
@@ -7902,7 +7916,7 @@
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="9"/>
-      <c r="B454" s="15"/>
+      <c r="B454" s="18"/>
       <c r="C454" s="10"/>
       <c r="D454" s="4" t="s">
         <v>332</v>
@@ -7913,9 +7927,9 @@
       <c r="F454" s="4"/>
     </row>
     <row r="455" spans="1:6">
-      <c r="A455" s="11"/>
-      <c r="B455" s="16"/>
-      <c r="C455" s="12"/>
+      <c r="A455" s="13"/>
+      <c r="B455" s="19"/>
+      <c r="C455" s="14"/>
       <c r="D455" s="4" t="s">
         <v>23</v>
       </c>
@@ -7928,7 +7942,7 @@
       <c r="A456" s="7">
         <v>7</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="B456" s="17" t="s">
         <v>333</v>
       </c>
       <c r="C456" s="8" t="s">
@@ -7944,7 +7958,7 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="9"/>
-      <c r="B457" s="15"/>
+      <c r="B457" s="18"/>
       <c r="C457" s="10"/>
       <c r="D457" s="4" t="s">
         <v>336</v>
@@ -7956,7 +7970,7 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="9"/>
-      <c r="B458" s="15"/>
+      <c r="B458" s="18"/>
       <c r="C458" s="10"/>
       <c r="D458" s="4" t="s">
         <v>337</v>
@@ -7968,8 +7982,8 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="9"/>
-      <c r="B459" s="15"/>
-      <c r="C459" s="12"/>
+      <c r="B459" s="18"/>
+      <c r="C459" s="14"/>
       <c r="D459" s="4" t="s">
         <v>15</v>
       </c>
@@ -7980,7 +7994,7 @@
     </row>
     <row r="460" s="1" customFormat="1" spans="1:6">
       <c r="A460" s="9"/>
-      <c r="B460" s="15"/>
+      <c r="B460" s="18"/>
       <c r="C460" s="8" t="s">
         <v>338</v>
       </c>
@@ -7994,7 +8008,7 @@
     </row>
     <row r="461" s="1" customFormat="1" spans="1:6">
       <c r="A461" s="9"/>
-      <c r="B461" s="15"/>
+      <c r="B461" s="18"/>
       <c r="C461" s="10"/>
       <c r="D461" s="4" t="s">
         <v>340</v>
@@ -8006,7 +8020,7 @@
     </row>
     <row r="462" s="1" customFormat="1" spans="1:6">
       <c r="A462" s="9"/>
-      <c r="B462" s="15"/>
+      <c r="B462" s="18"/>
       <c r="C462" s="10"/>
       <c r="D462" s="4" t="s">
         <v>34</v>
@@ -8018,7 +8032,7 @@
     </row>
     <row r="463" s="1" customFormat="1" spans="1:6">
       <c r="A463" s="9"/>
-      <c r="B463" s="15"/>
+      <c r="B463" s="18"/>
       <c r="C463" s="10"/>
       <c r="D463" s="4" t="s">
         <v>39</v>
@@ -8030,7 +8044,7 @@
     </row>
     <row r="464" s="1" customFormat="1" spans="1:6">
       <c r="A464" s="9"/>
-      <c r="B464" s="15"/>
+      <c r="B464" s="18"/>
       <c r="C464" s="10"/>
       <c r="D464" s="4" t="s">
         <v>29</v>
@@ -8042,7 +8056,7 @@
     </row>
     <row r="465" s="1" customFormat="1" spans="1:6">
       <c r="A465" s="9"/>
-      <c r="B465" s="15"/>
+      <c r="B465" s="18"/>
       <c r="C465" s="10"/>
       <c r="D465" s="4" t="s">
         <v>302</v>
@@ -8054,7 +8068,7 @@
     </row>
     <row r="466" s="1" customFormat="1" spans="1:6">
       <c r="A466" s="9"/>
-      <c r="B466" s="15"/>
+      <c r="B466" s="18"/>
       <c r="C466" s="10"/>
       <c r="D466" s="4" t="s">
         <v>303</v>
@@ -8066,8 +8080,8 @@
     </row>
     <row r="467" s="1" customFormat="1" spans="1:6">
       <c r="A467" s="9"/>
-      <c r="B467" s="15"/>
-      <c r="C467" s="12"/>
+      <c r="B467" s="18"/>
+      <c r="C467" s="14"/>
       <c r="D467" s="4" t="s">
         <v>304</v>
       </c>
@@ -8078,7 +8092,7 @@
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="9"/>
-      <c r="B468" s="15"/>
+      <c r="B468" s="18"/>
       <c r="C468" s="8" t="s">
         <v>341</v>
       </c>
@@ -8092,20 +8106,20 @@
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="9"/>
-      <c r="B469" s="15"/>
+      <c r="B469" s="18"/>
       <c r="C469" s="10"/>
-      <c r="D469" s="4" t="s">
+      <c r="D469" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E469" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F469" s="4"/>
+      <c r="E469" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F469" s="11"/>
     </row>
     <row r="470" spans="1:6">
-      <c r="A470" s="9"/>
-      <c r="B470" s="15"/>
-      <c r="C470" s="12"/>
+      <c r="A470" s="3"/>
+      <c r="B470" s="20"/>
+      <c r="C470" s="5"/>
       <c r="D470" s="4" t="s">
         <v>344</v>
       </c>
@@ -8113,9 +8127,9 @@
       <c r="F470" s="4"/>
     </row>
     <row r="471" spans="1:6">
-      <c r="A471" s="9"/>
-      <c r="B471" s="15"/>
-      <c r="C471" s="8" t="s">
+      <c r="A471" s="3"/>
+      <c r="B471" s="20"/>
+      <c r="C471" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D471" s="4" t="s">
@@ -8125,9 +8139,9 @@
       <c r="F471" s="4"/>
     </row>
     <row r="472" spans="1:6">
-      <c r="A472" s="11"/>
-      <c r="B472" s="16"/>
-      <c r="C472" s="12"/>
+      <c r="A472" s="3"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="5"/>
       <c r="D472" s="4" t="s">
         <v>346</v>
       </c>
@@ -8180,18 +8194,18 @@
       <c r="A476" s="9"/>
       <c r="B476" s="10"/>
       <c r="C476" s="10"/>
-      <c r="D476" s="4" t="s">
+      <c r="D476" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E476" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F476" s="4"/>
+      <c r="E476" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F476" s="11"/>
     </row>
     <row r="477" spans="1:6">
-      <c r="A477" s="9"/>
-      <c r="B477" s="10"/>
-      <c r="C477" s="10"/>
+      <c r="A477" s="3"/>
+      <c r="B477" s="5"/>
+      <c r="C477" s="5"/>
       <c r="D477" s="4" t="s">
         <v>350</v>
       </c>
@@ -8202,18 +8216,18 @@
       <c r="A478" s="9"/>
       <c r="B478" s="10"/>
       <c r="C478" s="10"/>
-      <c r="D478" s="4" t="s">
+      <c r="D478" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E478" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F478" s="4"/>
+      <c r="E478" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F478" s="15"/>
     </row>
     <row r="479" spans="1:6">
-      <c r="A479" s="9"/>
-      <c r="B479" s="10"/>
-      <c r="C479" s="12"/>
+      <c r="A479" s="3"/>
+      <c r="B479" s="5"/>
+      <c r="C479" s="5"/>
       <c r="D479" s="4" t="s">
         <v>352</v>
       </c>
@@ -8223,16 +8237,16 @@
     <row r="480" spans="1:6">
       <c r="A480" s="9"/>
       <c r="B480" s="10"/>
-      <c r="C480" s="4" t="s">
+      <c r="C480" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D480" s="4" t="s">
+      <c r="D480" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="E480" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F480" s="4"/>
+      <c r="E480" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F480" s="12"/>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="7">
@@ -8263,8 +8277,8 @@
       <c r="F482" s="4"/>
     </row>
     <row r="483" ht="15" customHeight="1" spans="1:6">
-      <c r="A483" s="11"/>
-      <c r="B483" s="12"/>
+      <c r="A483" s="13"/>
+      <c r="B483" s="14"/>
       <c r="C483" s="4" t="s">
         <v>357</v>
       </c>
@@ -8322,18 +8336,18 @@
       <c r="A487" s="9"/>
       <c r="B487" s="10"/>
       <c r="C487" s="10"/>
-      <c r="D487" s="4" t="s">
+      <c r="D487" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="E487" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F487" s="4"/>
+      <c r="E487" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F487" s="11"/>
     </row>
     <row r="488" spans="1:6">
-      <c r="A488" s="9"/>
-      <c r="B488" s="10"/>
-      <c r="C488" s="12"/>
+      <c r="A488" s="3"/>
+      <c r="B488" s="5"/>
+      <c r="C488" s="5"/>
       <c r="D488" s="4" t="s">
         <v>364</v>
       </c>
@@ -8341,9 +8355,9 @@
       <c r="F488" s="4"/>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="9"/>
-      <c r="B489" s="10"/>
-      <c r="C489" s="8" t="s">
+      <c r="A489" s="3"/>
+      <c r="B489" s="5"/>
+      <c r="C489" s="5" t="s">
         <v>365</v>
       </c>
       <c r="D489" s="4" t="s">
@@ -8353,9 +8367,9 @@
       <c r="F489" s="4"/>
     </row>
     <row r="490" spans="1:6">
-      <c r="A490" s="9"/>
-      <c r="B490" s="10"/>
-      <c r="C490" s="10"/>
+      <c r="A490" s="3"/>
+      <c r="B490" s="5"/>
+      <c r="C490" s="5"/>
       <c r="D490" s="4" t="s">
         <v>367</v>
       </c>
@@ -8363,9 +8377,9 @@
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6">
-      <c r="A491" s="9"/>
-      <c r="B491" s="10"/>
-      <c r="C491" s="10"/>
+      <c r="A491" s="3"/>
+      <c r="B491" s="5"/>
+      <c r="C491" s="5"/>
       <c r="D491" s="4" t="s">
         <v>368</v>
       </c>
@@ -8373,9 +8387,9 @@
       <c r="F491" s="4"/>
     </row>
     <row r="492" spans="1:6">
-      <c r="A492" s="9"/>
-      <c r="B492" s="10"/>
-      <c r="C492" s="10"/>
+      <c r="A492" s="3"/>
+      <c r="B492" s="5"/>
+      <c r="C492" s="5"/>
       <c r="D492" s="4" t="s">
         <v>369</v>
       </c>
@@ -8383,9 +8397,9 @@
       <c r="F492" s="4"/>
     </row>
     <row r="493" spans="1:6">
-      <c r="A493" s="9"/>
-      <c r="B493" s="10"/>
-      <c r="C493" s="10"/>
+      <c r="A493" s="3"/>
+      <c r="B493" s="5"/>
+      <c r="C493" s="5"/>
       <c r="D493" s="4" t="s">
         <v>39</v>
       </c>
@@ -8393,9 +8407,9 @@
       <c r="F493" s="4"/>
     </row>
     <row r="494" spans="1:6">
-      <c r="A494" s="9"/>
-      <c r="B494" s="10"/>
-      <c r="C494" s="12"/>
+      <c r="A494" s="3"/>
+      <c r="B494" s="5"/>
+      <c r="C494" s="5"/>
       <c r="D494" s="4" t="s">
         <v>40</v>
       </c>
@@ -8403,9 +8417,9 @@
       <c r="F494" s="4"/>
     </row>
     <row r="495" spans="1:6">
-      <c r="A495" s="9"/>
-      <c r="B495" s="10"/>
-      <c r="C495" s="8" t="s">
+      <c r="A495" s="3"/>
+      <c r="B495" s="5"/>
+      <c r="C495" s="5" t="s">
         <v>370</v>
       </c>
       <c r="D495" s="4" t="s">
@@ -8415,9 +8429,9 @@
       <c r="F495" s="4"/>
     </row>
     <row r="496" spans="1:6">
-      <c r="A496" s="9"/>
-      <c r="B496" s="10"/>
-      <c r="C496" s="10"/>
+      <c r="A496" s="3"/>
+      <c r="B496" s="5"/>
+      <c r="C496" s="5"/>
       <c r="D496" s="4" t="s">
         <v>372</v>
       </c>
@@ -8425,9 +8439,9 @@
       <c r="F496" s="4"/>
     </row>
     <row r="497" spans="1:6">
-      <c r="A497" s="9"/>
-      <c r="B497" s="10"/>
-      <c r="C497" s="12"/>
+      <c r="A497" s="3"/>
+      <c r="B497" s="5"/>
+      <c r="C497" s="5"/>
       <c r="D497" s="4" t="s">
         <v>373</v>
       </c>
@@ -8437,16 +8451,16 @@
     <row r="498" spans="1:6">
       <c r="A498" s="9"/>
       <c r="B498" s="10"/>
-      <c r="C498" s="8" t="s">
+      <c r="C498" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D498" s="4" t="s">
+      <c r="D498" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E498" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F498" s="4"/>
+      <c r="E498" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F498" s="12"/>
     </row>
     <row r="499" spans="1:6">
       <c r="A499" s="9"/>
@@ -8488,18 +8502,18 @@
       <c r="A502" s="9"/>
       <c r="B502" s="10"/>
       <c r="C502" s="10"/>
-      <c r="D502" s="4" t="s">
+      <c r="D502" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="E502" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F502" s="4"/>
+      <c r="E502" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F502" s="11"/>
     </row>
     <row r="503" spans="1:6">
-      <c r="A503" s="9"/>
-      <c r="B503" s="10"/>
-      <c r="C503" s="12"/>
+      <c r="A503" s="3"/>
+      <c r="B503" s="5"/>
+      <c r="C503" s="5"/>
       <c r="D503" s="4" t="s">
         <v>377</v>
       </c>
@@ -8509,16 +8523,16 @@
     <row r="504" spans="1:6">
       <c r="A504" s="9"/>
       <c r="B504" s="10"/>
-      <c r="C504" s="8" t="s">
+      <c r="C504" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D504" s="4" t="s">
+      <c r="D504" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E504" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F504" s="4"/>
+      <c r="E504" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F504" s="12"/>
     </row>
     <row r="505" spans="1:6">
       <c r="A505" s="9"/>
@@ -8608,18 +8622,18 @@
       <c r="A512" s="9"/>
       <c r="B512" s="10"/>
       <c r="C512" s="10"/>
-      <c r="D512" s="4" t="s">
+      <c r="D512" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="E512" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F512" s="4"/>
+      <c r="E512" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F512" s="11"/>
     </row>
     <row r="513" spans="1:6">
-      <c r="A513" s="9"/>
-      <c r="B513" s="10"/>
-      <c r="C513" s="12"/>
+      <c r="A513" s="3"/>
+      <c r="B513" s="5"/>
+      <c r="C513" s="5"/>
       <c r="D513" s="4" t="s">
         <v>377</v>
       </c>
@@ -8629,16 +8643,16 @@
     <row r="514" spans="1:6">
       <c r="A514" s="9"/>
       <c r="B514" s="10"/>
-      <c r="C514" s="8" t="s">
+      <c r="C514" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D514" s="4" t="s">
+      <c r="D514" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E514" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F514" s="4"/>
+      <c r="E514" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F514" s="12"/>
     </row>
     <row r="515" spans="1:6">
       <c r="A515" s="9"/>
@@ -8668,18 +8682,18 @@
       <c r="A517" s="9"/>
       <c r="B517" s="10"/>
       <c r="C517" s="10"/>
-      <c r="D517" s="4" t="s">
+      <c r="D517" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E517" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F517" s="4"/>
+      <c r="E517" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F517" s="11"/>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518" s="11"/>
-      <c r="B518" s="12"/>
-      <c r="C518" s="12"/>
+      <c r="A518" s="3"/>
+      <c r="B518" s="5"/>
+      <c r="C518" s="5"/>
       <c r="D518" s="4" t="s">
         <v>377</v>
       </c>
